--- a/ENCUESTA MOVILIDAD(1-154) (1).xlsx
+++ b/ENCUESTA MOVILIDAD(1-154) (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\WEB\ProbabilidadyEstadistica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Documents\ARCHIVOS SABANA 5TO SEMESTRE\Proba I\Corte 1\ProbabilidadyEstadistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D35BF65-4D8E-424F-A8AC-32751B4F30DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B2D1C6-E81D-4B47-9699-4D21139E0A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="163">
   <si>
     <t>ID</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Caminar</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>Estudio;Trabajo;</t>
   </si>
   <si>
-    <t xml:space="preserve">Carro </t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -123,12 +117,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>Intermunicipal</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -141,9 +129,6 @@
     <t>Vueltas. Paseos;</t>
   </si>
   <si>
-    <t>Auto</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
@@ -159,9 +144,6 @@
     <t>20</t>
   </si>
   <si>
-    <t>Particular</t>
-  </si>
-  <si>
     <t>68</t>
   </si>
   <si>
@@ -174,9 +156,6 @@
     <t>59</t>
   </si>
   <si>
-    <t xml:space="preserve">Automóvil </t>
-  </si>
-  <si>
     <t>90</t>
   </si>
   <si>
@@ -189,18 +168,9 @@
     <t>2</t>
   </si>
   <si>
-    <t>Carro</t>
-  </si>
-  <si>
-    <t>8500</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
-    <t>10000</t>
-  </si>
-  <si>
     <t>9000</t>
   </si>
   <si>
@@ -210,9 +180,6 @@
     <t>Bicicleta</t>
   </si>
   <si>
-    <t>Transmilenio y SITP</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
@@ -222,18 +189,12 @@
     <t>Trabajo;Estudio;</t>
   </si>
   <si>
-    <t>Transmilenio y sitp</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
     <t>Turismo ;</t>
   </si>
   <si>
-    <t>Buseta</t>
-  </si>
-  <si>
     <t>240</t>
   </si>
   <si>
@@ -249,9 +210,6 @@
     <t>Trabajo;Visitas;</t>
   </si>
   <si>
-    <t xml:space="preserve">Autobus </t>
-  </si>
-  <si>
     <t>13000</t>
   </si>
   <si>
@@ -273,9 +231,6 @@
     <t>35</t>
   </si>
   <si>
-    <t>SITP</t>
-  </si>
-  <si>
     <t>7000</t>
   </si>
   <si>
@@ -297,9 +252,6 @@
     <t>16000</t>
   </si>
   <si>
-    <t>Autobus</t>
-  </si>
-  <si>
     <t>2000</t>
   </si>
   <si>
@@ -312,9 +264,6 @@
     <t>20000</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>Bus</t>
   </si>
   <si>
@@ -327,12 +276,6 @@
     <t>41</t>
   </si>
   <si>
-    <t>Taxi</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
@@ -345,33 +288,18 @@
     <t>1500</t>
   </si>
   <si>
-    <t>12000</t>
-  </si>
-  <si>
     <t>38</t>
   </si>
   <si>
-    <t>transmilenio e intermunicipal</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
-    <t>Transmilenio y autobus</t>
-  </si>
-  <si>
     <t>180</t>
   </si>
   <si>
     <t>14000</t>
   </si>
   <si>
-    <t xml:space="preserve">ruta - wheels </t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>Vueltas;</t>
   </si>
   <si>
@@ -381,21 +309,12 @@
     <t>citas medicas;</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>28</t>
   </si>
   <si>
-    <t>Automóvil</t>
-  </si>
-  <si>
     <t>Visitar a mi casi algo 🫣;</t>
   </si>
   <si>
-    <t>Vehicular</t>
-  </si>
-  <si>
     <t>30000</t>
   </si>
   <si>
@@ -408,9 +327,6 @@
     <t>62</t>
   </si>
   <si>
-    <t xml:space="preserve">Vehículo particular </t>
-  </si>
-  <si>
     <t>25000</t>
   </si>
   <si>
@@ -426,18 +342,12 @@
     <t>61</t>
   </si>
   <si>
-    <t xml:space="preserve">Bisicleta </t>
-  </si>
-  <si>
     <t>Trabajo;recreación;</t>
   </si>
   <si>
     <t>40000</t>
   </si>
   <si>
-    <t>Bus y Transmilenio</t>
-  </si>
-  <si>
     <t>Trabajo;Citas médicas ;</t>
   </si>
   <si>
@@ -456,9 +366,6 @@
     <t xml:space="preserve">Moto </t>
   </si>
   <si>
-    <t xml:space="preserve">Tanto como carro particular y público </t>
-  </si>
-  <si>
     <t>6300</t>
   </si>
   <si>
@@ -468,21 +375,12 @@
     <t>Actividades de una pensionada;</t>
   </si>
   <si>
-    <t>Carro propio cuando llevo peso y transmilenio cuando voy de un lugar a otro</t>
-  </si>
-  <si>
     <t>Diligencias;</t>
   </si>
   <si>
-    <t>Transmileno</t>
-  </si>
-  <si>
     <t>Diligencias personales;</t>
   </si>
   <si>
-    <t xml:space="preserve">Intermunicipal </t>
-  </si>
-  <si>
     <t>53</t>
   </si>
   <si>
@@ -492,9 +390,6 @@
     <t>Citas médicas ;</t>
   </si>
   <si>
-    <t>Plataforma y Transmileno</t>
-  </si>
-  <si>
     <t>1750</t>
   </si>
   <si>
@@ -513,12 +408,6 @@
     <t>Medicos terapias;</t>
   </si>
   <si>
-    <t>Taxi transmilenio</t>
-  </si>
-  <si>
-    <t>Automovil</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
@@ -531,21 +420,12 @@
     <t>Diligencias ;</t>
   </si>
   <si>
-    <t xml:space="preserve">Transmilenio y SITP </t>
-  </si>
-  <si>
     <t>55</t>
   </si>
   <si>
     <t xml:space="preserve">Público </t>
   </si>
   <si>
-    <t xml:space="preserve">Vehículo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intermunicipal y Transmilenio </t>
-  </si>
-  <si>
     <t>17000</t>
   </si>
   <si>
@@ -561,9 +441,6 @@
     <t>39</t>
   </si>
   <si>
-    <t>Carro moto</t>
-  </si>
-  <si>
     <t>100000</t>
   </si>
   <si>
@@ -573,12 +450,6 @@
     <t>Visitas Familiar;</t>
   </si>
   <si>
-    <t>Traquetoyota</t>
-  </si>
-  <si>
-    <t>TM -SITP</t>
-  </si>
-  <si>
     <t>Ocio;</t>
   </si>
   <si>
@@ -591,9 +462,6 @@
     <t>Recreativos ;</t>
   </si>
   <si>
-    <t xml:space="preserve">Vehículos </t>
-  </si>
-  <si>
     <t>69</t>
   </si>
   <si>
@@ -603,36 +471,18 @@
     <t>Estudio;Trabajo;La casa de don Jorge ;</t>
   </si>
   <si>
-    <t xml:space="preserve">Carro primer mundista </t>
-  </si>
-  <si>
-    <t>Vehículo particular</t>
-  </si>
-  <si>
     <t>19000</t>
   </si>
   <si>
     <t>75</t>
   </si>
   <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Particular </t>
-  </si>
-  <si>
     <t>Trabajo;Médico, vueltas... ;</t>
   </si>
   <si>
-    <t xml:space="preserve">Transmilenio o taxi </t>
-  </si>
-  <si>
     <t>Medicos, alimentos.;</t>
   </si>
   <si>
-    <t>250003</t>
-  </si>
-  <si>
     <t>OKI;</t>
   </si>
   <si>
@@ -642,54 +492,12 @@
     <t>Tu;</t>
   </si>
   <si>
-    <t>Privado y publico</t>
-  </si>
-  <si>
-    <t>603</t>
-  </si>
-  <si>
     <t>35000</t>
   </si>
   <si>
     <t>Tren</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Trasnmilenio</t>
-  </si>
-  <si>
-    <t>Bus; bicicleta</t>
-  </si>
-  <si>
-    <t>Taxi; uber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urbano;Transmilenio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmilenio;flota </t>
-  </si>
-  <si>
-    <t>Transmilenio;SITP;flota;didi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmilenio;Flota </t>
-  </si>
-  <si>
-    <t>Taxi;uber</t>
-  </si>
-  <si>
-    <t>Plataformas</t>
-  </si>
-  <si>
-    <t>Flota;Transmilenio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flota;Transmilenio </t>
-  </si>
-  <si>
     <t>Carro particular</t>
   </si>
   <si>
@@ -700,12 +508,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Transmilenio</t>
-  </si>
-  <si>
-    <t>Sito Transmilenio</t>
-  </si>
-  <si>
-    <t>Transmilenio y Uber</t>
   </si>
   <si>
     <t xml:space="preserve">Plataforma </t>
@@ -718,10 +520,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -730,18 +540,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -753,21 +557,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -839,10 +646,10 @@
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="¿Qué tipo transporte usa?" dataDxfId="6"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Motivo por el cual se transporta" dataDxfId="5"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="¿Qué medio de transporte usa?" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tiempo que tarda en 1 recorrido (Minutos)" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="En promedio cuánto dinero gasta a diario, en transporte" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tiempo que tarda en 1 recorrido (Minutos)" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="En promedio cuánto dinero gasta a diario, en transporte" dataDxfId="0" dataCellStyle="Millares"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Nivel de conformidad" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Medio transporte ideal. ¿Por qué?" dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Medio transporte ideal. ¿Por qué?" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1147,16 +954,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J131" workbookViewId="0">
-      <selection activeCell="O132" sqref="O132"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.90625" customWidth="1"/>
+    <col min="10" max="10" width="32" customWidth="1"/>
+    <col min="11" max="15" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1203,7 +1013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1235,17 +1045,17 @@
       <c r="L2">
         <v>8</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="O2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1260,34 +1070,34 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
       </c>
       <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="L3">
         <v>10</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>27</v>
+      <c r="M3" s="4">
+        <v>10000</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1302,7 +1112,7 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -1314,22 +1124,22 @@
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="L4">
         <v>30</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>30</v>
+      <c r="M4" s="4">
+        <v>6000</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1356,22 +1166,22 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L5">
         <v>40</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>33</v>
+      <c r="M5" s="4">
+        <v>9000</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1386,34 +1196,34 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="L6">
         <v>60</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>39</v>
+      <c r="M6" s="4">
+        <v>90000</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1428,34 +1238,34 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
         <v>36</v>
       </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>41</v>
-      </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L7">
         <v>10</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>43</v>
+      <c r="M7" s="4">
+        <v>20000</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1470,7 +1280,7 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
         <v>17</v>
@@ -1479,25 +1289,25 @@
         <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L8">
         <v>20</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="4">
+        <v>6000</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="O8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1512,34 +1322,34 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="L9">
         <v>45</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>50</v>
+      <c r="M9" s="4">
+        <v>90000</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1554,34 +1364,34 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L10">
         <v>10</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>43</v>
+      <c r="M10" s="4">
+        <v>20000</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1596,34 +1406,34 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
         <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L11">
         <v>50</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>27</v>
+      <c r="M11" s="4">
+        <v>10000</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="O11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1638,34 +1448,34 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L12">
         <v>15</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>43</v>
+      <c r="M12" s="4">
+        <v>20000</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1686,28 +1496,28 @@
         <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="L13">
         <v>35</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>55</v>
+      <c r="M13" s="4">
+        <v>9000</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1722,34 +1532,34 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
         <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="L14">
         <v>120</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>57</v>
+      <c r="M14" s="4">
+        <v>10000</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1776,22 +1586,22 @@
         <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="L15">
         <v>60</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>58</v>
+      <c r="M15" s="4">
+        <v>9000</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1806,34 +1616,34 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L16">
         <v>40</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>21</v>
+      <c r="M16" s="4">
+        <v>0</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1851,7 +1661,7 @@
         <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I17" t="s">
         <v>18</v>
@@ -1860,22 +1670,22 @@
         <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="L17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="4">
+        <v>6000</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1893,7 +1703,7 @@
         <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I18" t="s">
         <v>18</v>
@@ -1902,22 +1712,22 @@
         <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
+      </c>
+      <c r="M18" s="4">
+        <v>6000</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1941,25 +1751,25 @@
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="M19" s="4">
+        <v>10000</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="O19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1977,7 +1787,7 @@
         <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I20" t="s">
         <v>18</v>
@@ -1986,22 +1796,22 @@
         <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="M20" s="4">
+        <v>6000</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2016,34 +1826,34 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I21" t="s">
         <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K21" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="M21" s="4">
+        <v>60000</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2058,34 +1868,34 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M22" s="4">
+        <v>10000</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" t="s">
         <v>62</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2103,7 +1913,7 @@
         <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I23" t="s">
         <v>18</v>
@@ -2112,22 +1922,22 @@
         <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2142,7 +1952,7 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s">
         <v>17</v>
@@ -2151,25 +1961,25 @@
         <v>18</v>
       </c>
       <c r="J24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K24" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="O24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2184,34 +1994,34 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H25" t="s">
         <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K25" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>80</v>
+        <v>38</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O25" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2226,34 +2036,34 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K26" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="M26" s="4">
+        <v>10000</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O26" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2268,34 +2078,34 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I27" t="s">
         <v>18</v>
       </c>
       <c r="J27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K27" t="s">
-        <v>82</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="O27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2310,7 +2120,7 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="H28" t="s">
         <v>17</v>
@@ -2319,25 +2129,25 @@
         <v>18</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K28" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="O28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2355,31 +2165,31 @@
         <v>16</v>
       </c>
       <c r="H29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I29" t="s">
         <v>18</v>
       </c>
       <c r="J29" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="K29" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>89</v>
+        <v>56</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="O29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2394,7 +2204,7 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H30" t="s">
         <v>17</v>
@@ -2406,22 +2216,22 @@
         <v>19</v>
       </c>
       <c r="K30" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>91</v>
+        <v>25</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O30" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2448,22 +2258,22 @@
         <v>19</v>
       </c>
       <c r="K31" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O31" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2481,7 +2291,7 @@
         <v>16</v>
       </c>
       <c r="H32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I32" t="s">
         <v>18</v>
@@ -2490,22 +2300,22 @@
         <v>19</v>
       </c>
       <c r="K32" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="O32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2520,34 +2330,34 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J33" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>94</v>
+        <v>34</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2574,22 +2384,22 @@
         <v>19</v>
       </c>
       <c r="K34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="O34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2610,28 +2420,28 @@
         <v>17</v>
       </c>
       <c r="I35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J35" t="s">
         <v>19</v>
       </c>
       <c r="K35" t="s">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>95</v>
+        <v>38</v>
+      </c>
+      <c r="M35" s="4">
+        <v>14000</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O35" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2646,10 +2456,10 @@
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H36" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I36" t="s">
         <v>18</v>
@@ -2658,22 +2468,22 @@
         <v>19</v>
       </c>
       <c r="K36" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
+      </c>
+      <c r="M36" s="4">
+        <v>15000</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2688,34 +2498,34 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K37" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>101</v>
+        <v>25</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O37" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2730,34 +2540,34 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s">
         <v>17</v>
       </c>
       <c r="I38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K38" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>103</v>
+        <v>52</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O38" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2772,10 +2582,10 @@
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I39" t="s">
         <v>18</v>
@@ -2784,22 +2594,22 @@
         <v>19</v>
       </c>
       <c r="K39" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>105</v>
+        <v>25</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="O39" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2817,31 +2627,31 @@
         <v>16</v>
       </c>
       <c r="H40" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J40" t="s">
         <v>19</v>
       </c>
       <c r="K40" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>30</v>
+        <v>67</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O40" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2856,10 +2666,10 @@
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H41" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I41" t="s">
         <v>18</v>
@@ -2868,22 +2678,22 @@
         <v>19</v>
       </c>
       <c r="K41" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>106</v>
+        <v>70</v>
+      </c>
+      <c r="M41" s="4">
+        <v>12000</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="O41" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2898,34 +2708,34 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H42" t="s">
         <v>17</v>
       </c>
       <c r="I42" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" t="s">
         <v>24</v>
       </c>
-      <c r="J42" t="s">
-        <v>25</v>
-      </c>
       <c r="K42" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>43</v>
+        <v>81</v>
+      </c>
+      <c r="M42" s="4">
+        <v>20000</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O42" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2940,34 +2750,34 @@
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H43" t="s">
         <v>17</v>
       </c>
       <c r="I43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J43" t="s">
         <v>19</v>
       </c>
       <c r="K43" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O43" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2982,34 +2792,34 @@
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s">
         <v>17</v>
       </c>
       <c r="I44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K44" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3036,22 +2846,22 @@
         <v>19</v>
       </c>
       <c r="K45" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O45" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3066,7 +2876,7 @@
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H46" t="s">
         <v>17</v>
@@ -3078,22 +2888,22 @@
         <v>19</v>
       </c>
       <c r="K46" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>106</v>
+        <v>63</v>
+      </c>
+      <c r="M46" s="4">
+        <v>12000</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O46" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3108,34 +2918,34 @@
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H47" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I47" t="s">
         <v>18</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K47" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N47" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N47" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="O47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3150,10 +2960,10 @@
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H48" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I48" t="s">
         <v>18</v>
@@ -3162,22 +2972,22 @@
         <v>19</v>
       </c>
       <c r="K48" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>58</v>
+        <v>88</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3204,22 +3014,22 @@
         <v>19</v>
       </c>
       <c r="K49" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="O49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3234,34 +3044,34 @@
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H50" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J50" t="s">
         <v>19</v>
       </c>
       <c r="K50" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>94</v>
+        <v>34</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O50" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3282,28 +3092,28 @@
         <v>17</v>
       </c>
       <c r="I51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J51" t="s">
         <v>19</v>
       </c>
       <c r="K51" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>106</v>
+        <v>52</v>
+      </c>
+      <c r="M51" s="4">
+        <v>12000</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3324,28 +3134,28 @@
         <v>17</v>
       </c>
       <c r="I52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J52" t="s">
         <v>19</v>
       </c>
       <c r="K52" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>114</v>
+        <v>51</v>
+      </c>
+      <c r="M52" s="4">
+        <v>12000</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O52" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3360,34 +3170,34 @@
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H53" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J53" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>27</v>
+        <v>52</v>
+      </c>
+      <c r="M53" s="4">
+        <v>10000</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3402,34 +3212,34 @@
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H54" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I54" t="s">
         <v>18</v>
       </c>
       <c r="J54" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="K54" t="s">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
+      </c>
+      <c r="M54" s="4">
+        <v>6000</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="O54" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3444,34 +3254,34 @@
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="H55" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K55" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
+      </c>
+      <c r="M55" s="4">
+        <v>20000</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O55" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3486,10 +3296,10 @@
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H56" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I56" t="s">
         <v>18</v>
@@ -3498,22 +3308,22 @@
         <v>19</v>
       </c>
       <c r="K56" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>30</v>
+        <v>63</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="O56" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3528,7 +3338,7 @@
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H57" t="s">
         <v>17</v>
@@ -3537,25 +3347,25 @@
         <v>18</v>
       </c>
       <c r="J57" t="s">
+        <v>40</v>
+      </c>
+      <c r="K57" t="s">
+        <v>41</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M57" s="4">
+        <v>6000</v>
+      </c>
+      <c r="N57" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K57" t="s">
-        <v>47</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="O57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3570,7 +3380,7 @@
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H58" t="s">
         <v>17</v>
@@ -3579,25 +3389,25 @@
         <v>18</v>
       </c>
       <c r="J58" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="K58" t="s">
+        <v>41</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N58" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L58" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="O58" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3612,34 +3422,34 @@
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="H59" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I59" t="s">
         <v>18</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K59" t="s">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
+      </c>
+      <c r="M59" s="4">
+        <v>10000</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O59" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3654,34 +3464,34 @@
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K60" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>123</v>
+        <v>34</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O60" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3696,34 +3506,34 @@
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="2" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="H61" t="s">
         <v>17</v>
       </c>
       <c r="I61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K61" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>123</v>
+        <v>34</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O61" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3738,34 +3548,34 @@
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="2" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="H62" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I62" t="s">
         <v>18</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K62" t="s">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3780,34 +3590,34 @@
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="2" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="H63" t="s">
         <v>17</v>
       </c>
       <c r="I63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K63" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>123</v>
+        <v>88</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="O63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3822,34 +3632,34 @@
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H64" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K64" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="M64" s="4">
+        <v>10000</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O64" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3864,34 +3674,34 @@
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K65" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>128</v>
+        <v>57</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O65" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3906,7 +3716,7 @@
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H66" t="s">
         <v>17</v>
@@ -3918,22 +3728,22 @@
         <v>19</v>
       </c>
       <c r="K66" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>30</v>
+        <v>70</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="O66" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3948,34 +3758,34 @@
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="H67" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I67" t="s">
         <v>18</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K67" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>57</v>
+        <v>88</v>
+      </c>
+      <c r="M67" s="4">
+        <v>10000</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O67" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3990,34 +3800,34 @@
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="2" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="H68" t="s">
         <v>17</v>
       </c>
       <c r="I68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K68" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>57</v>
+        <v>21</v>
+      </c>
+      <c r="M68" s="4">
+        <v>10000</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O68" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4032,34 +3842,34 @@
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I69" t="s">
         <v>18</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K69" t="s">
+        <v>41</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M69" s="4">
+        <v>10000</v>
+      </c>
+      <c r="N69" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L69" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="O69" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4074,34 +3884,34 @@
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H70" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I70" t="s">
         <v>18</v>
       </c>
       <c r="J70" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="K70" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
+      </c>
+      <c r="M70" s="4">
+        <v>0</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="O70" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4116,34 +3926,34 @@
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="H71" t="s">
         <v>17</v>
       </c>
       <c r="I71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K71" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M71" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M71" s="4">
+        <v>0</v>
+      </c>
+      <c r="N71" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N71" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="O71" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4158,7 +3968,7 @@
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="H72" t="s">
         <v>17</v>
@@ -4167,25 +3977,25 @@
         <v>18</v>
       </c>
       <c r="J72" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K72" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M72" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N72" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N72" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="O72" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4200,34 +4010,34 @@
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="H73" t="s">
         <v>17</v>
       </c>
       <c r="I73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K73" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M73" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M73" s="4">
+        <v>0</v>
+      </c>
+      <c r="N73" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N73" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="O73" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4242,34 +4052,34 @@
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H74" t="s">
         <v>17</v>
       </c>
       <c r="I74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J74" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="K74" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>135</v>
+        <v>80</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O74" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4284,34 +4094,34 @@
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="H75" t="s">
         <v>17</v>
       </c>
       <c r="I75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K75" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M75" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M75" s="4">
+        <v>0</v>
+      </c>
+      <c r="N75" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N75" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="O75" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4326,7 +4136,7 @@
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="H76" t="s">
         <v>17</v>
@@ -4335,25 +4145,25 @@
         <v>18</v>
       </c>
       <c r="J76" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="K76" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="O76" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4368,7 +4178,7 @@
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H77" t="s">
         <v>17</v>
@@ -4380,22 +4190,22 @@
         <v>19</v>
       </c>
       <c r="K77" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="O77" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4410,34 +4220,34 @@
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J78" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="K78" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
+      </c>
+      <c r="M78" s="4">
+        <v>10000</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O78" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4452,34 +4262,34 @@
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H79" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I79" t="s">
         <v>18</v>
       </c>
       <c r="J79" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K79" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="O79" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4494,34 +4304,34 @@
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="2" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="H80" t="s">
         <v>17</v>
       </c>
       <c r="I80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J80" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="K80" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O80" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4536,34 +4346,34 @@
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="H81" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I81" t="s">
         <v>18</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K81" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>118</v>
+        <v>34</v>
+      </c>
+      <c r="M81" s="4">
+        <v>6000</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O81" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4578,34 +4388,34 @@
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="H82" t="s">
         <v>17</v>
       </c>
       <c r="I82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K82" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>98</v>
+        <v>57</v>
+      </c>
+      <c r="M82" s="4">
+        <v>15000</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O82" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4620,7 +4430,7 @@
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H83" t="s">
         <v>17</v>
@@ -4632,22 +4442,22 @@
         <v>19</v>
       </c>
       <c r="K83" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>86</v>
+        <v>67</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="O83" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4662,34 +4472,34 @@
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H84" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I84" t="s">
         <v>18</v>
       </c>
       <c r="J84" t="s">
+        <v>40</v>
+      </c>
+      <c r="K84" t="s">
+        <v>37</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N84" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K84" t="s">
-        <v>143</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="O84" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4704,34 +4514,34 @@
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="2" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="H85" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J85" t="s">
+        <v>115</v>
+      </c>
+      <c r="K85" t="s">
         <v>146</v>
       </c>
-      <c r="K85" t="s">
-        <v>147</v>
-      </c>
       <c r="L85" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M85" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="M85" s="4">
+        <v>10000</v>
+      </c>
       <c r="N85" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O85" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4746,7 +4556,7 @@
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s">
         <v>17</v>
@@ -4755,25 +4565,25 @@
         <v>18</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K86" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M86" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
+      </c>
+      <c r="M86" s="4">
+        <v>10000</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O86" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4788,7 +4598,7 @@
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H87" t="s">
         <v>17</v>
@@ -4800,22 +4610,22 @@
         <v>19</v>
       </c>
       <c r="K87" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M87" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O87" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4830,34 +4640,34 @@
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H88" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I88" t="s">
         <v>18</v>
       </c>
       <c r="J88" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="K88" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>21</v>
+        <v>63</v>
+      </c>
+      <c r="M88" s="4">
+        <v>0</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="O88" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4872,34 +4682,34 @@
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H89" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J89" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="K89" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
+      </c>
+      <c r="M89" s="4">
+        <v>50000</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="O89" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4914,7 +4724,7 @@
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H90" t="s">
         <v>17</v>
@@ -4926,22 +4736,22 @@
         <v>19</v>
       </c>
       <c r="K90" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
+      </c>
+      <c r="M90" s="4">
+        <v>16000</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="O90" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4956,34 +4766,34 @@
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="2" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="H91" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I91" t="s">
         <v>18</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K91" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>30</v>
+        <v>80</v>
+      </c>
+      <c r="M91" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="O91" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4998,34 +4808,34 @@
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="2" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="H92" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I92" t="s">
         <v>18</v>
       </c>
       <c r="J92" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="K92" t="s">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>94</v>
+        <v>63</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O92" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5040,34 +4850,34 @@
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="H93" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K93" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O93" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5082,7 +4892,7 @@
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="H94" t="s">
         <v>17</v>
@@ -5091,25 +4901,25 @@
         <v>18</v>
       </c>
       <c r="J94" t="s">
+        <v>40</v>
+      </c>
+      <c r="K94" t="s">
+        <v>41</v>
+      </c>
+      <c r="L94" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K94" t="s">
-        <v>96</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M94" s="2" t="s">
-        <v>77</v>
+      <c r="M94" s="4">
+        <v>120000</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O94" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5124,34 +4934,34 @@
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H95" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I95" t="s">
         <v>18</v>
       </c>
       <c r="J95" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="K95" t="s">
-        <v>155</v>
+        <v>37</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>63</v>
+        <v>38</v>
+      </c>
+      <c r="M95" s="4">
+        <v>25000</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O95" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5166,10 +4976,10 @@
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H96" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I96" t="s">
         <v>18</v>
@@ -5178,22 +4988,22 @@
         <v>19</v>
       </c>
       <c r="K96" t="s">
-        <v>211</v>
+        <v>50</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M96" s="2" t="s">
-        <v>156</v>
+        <v>38</v>
+      </c>
+      <c r="M96" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O96" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5208,7 +5018,7 @@
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H97" t="s">
         <v>17</v>
@@ -5217,25 +5027,25 @@
         <v>18</v>
       </c>
       <c r="J97" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="K97" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
+      </c>
+      <c r="M97" s="4">
+        <v>10000</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O97" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5250,10 +5060,10 @@
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="H98" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I98" t="s">
         <v>18</v>
@@ -5262,22 +5072,22 @@
         <v>19</v>
       </c>
       <c r="K98" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="M98" s="2" t="s">
-        <v>159</v>
+        <v>123</v>
+      </c>
+      <c r="M98" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="O98" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5292,7 +5102,7 @@
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="2" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="H99" t="s">
         <v>17</v>
@@ -5301,25 +5111,25 @@
         <v>18</v>
       </c>
       <c r="J99" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="K99" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M99" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
+      </c>
+      <c r="M99" s="4">
+        <v>20000</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O99" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5334,34 +5144,34 @@
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="2" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="H100" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I100" t="s">
         <v>18</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K100" t="s">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>94</v>
+        <v>43</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O100" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5376,34 +5186,34 @@
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H101" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K101" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M101" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
+      </c>
+      <c r="M101" s="4">
+        <v>30000</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O101" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5418,34 +5228,34 @@
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H102" t="s">
+        <v>32</v>
+      </c>
+      <c r="I102" t="s">
+        <v>23</v>
+      </c>
+      <c r="J102" t="s">
+        <v>40</v>
+      </c>
+      <c r="K102" t="s">
+        <v>146</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M102" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H102" t="s">
-        <v>36</v>
-      </c>
-      <c r="I102" t="s">
-        <v>24</v>
-      </c>
-      <c r="J102" t="s">
-        <v>46</v>
-      </c>
-      <c r="K102" t="s">
-        <v>163</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M102" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="N102" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O102" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5460,10 +5270,10 @@
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H103" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I103" t="s">
         <v>18</v>
@@ -5472,22 +5282,22 @@
         <v>19</v>
       </c>
       <c r="K103" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M103" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
+      </c>
+      <c r="M103" s="4">
+        <v>4000</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O103" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5502,34 +5312,34 @@
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="2" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="H104" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J104" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="K104" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M104" s="2" t="s">
-        <v>98</v>
+        <v>51</v>
+      </c>
+      <c r="M104" s="4">
+        <v>15000</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O104" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5544,34 +5354,34 @@
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="H105" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J105" t="s">
+        <v>122</v>
+      </c>
+      <c r="K105" t="s">
+        <v>146</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M105" s="4">
+        <v>10000</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O105" t="s">
         <v>157</v>
       </c>
-      <c r="K105" t="s">
-        <v>44</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O105" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5586,7 +5396,7 @@
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="2" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="H106" t="s">
         <v>17</v>
@@ -5595,25 +5405,25 @@
         <v>18</v>
       </c>
       <c r="J106" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K106" t="s">
+        <v>41</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M106" s="4">
+        <v>12000</v>
+      </c>
+      <c r="N106" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L106" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M106" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N106" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="O106" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5628,7 +5438,7 @@
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H107" t="s">
         <v>17</v>
@@ -5637,25 +5447,25 @@
         <v>18</v>
       </c>
       <c r="J107" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K107" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M107" s="2" t="s">
-        <v>106</v>
+        <v>57</v>
+      </c>
+      <c r="M107" s="4">
+        <v>12000</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O107" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5670,7 +5480,7 @@
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="2" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="H108" t="s">
         <v>17</v>
@@ -5679,25 +5489,25 @@
         <v>18</v>
       </c>
       <c r="J108" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="K108" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M108" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
+      </c>
+      <c r="M108" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O108" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5712,10 +5522,10 @@
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H109" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I109" t="s">
         <v>18</v>
@@ -5724,22 +5534,22 @@
         <v>19</v>
       </c>
       <c r="K109" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M109" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
+      </c>
+      <c r="M109" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O109" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5754,34 +5564,34 @@
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="2" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="H110" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K110" t="s">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M110" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="M110" s="4">
+        <v>10000</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O110" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5796,34 +5606,34 @@
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="H111" t="s">
         <v>17</v>
       </c>
       <c r="I111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K111" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M111" s="2" t="s">
-        <v>135</v>
+        <v>34</v>
+      </c>
+      <c r="M111" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O111" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5838,34 +5648,34 @@
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="2" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="H112" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I112" t="s">
         <v>18</v>
       </c>
       <c r="J112" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="K112" t="s">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M112" s="2" t="s">
-        <v>173</v>
+        <v>63</v>
+      </c>
+      <c r="M112" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="O112" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5880,34 +5690,34 @@
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H113" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K113" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="M113" s="2" t="s">
-        <v>94</v>
+        <v>134</v>
+      </c>
+      <c r="M113" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O113" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5922,34 +5732,34 @@
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="2" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="H114" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K114" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M114" s="2" t="s">
-        <v>80</v>
+        <v>51</v>
+      </c>
+      <c r="M114" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O114" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5964,34 +5774,34 @@
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="H115" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I115" t="s">
         <v>18</v>
       </c>
       <c r="J115" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K115" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
+      </c>
+      <c r="M115" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O115" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6006,34 +5816,34 @@
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H116" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K116" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M116" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="M116" s="4">
+        <v>10000</v>
+      </c>
       <c r="N116" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O116" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6048,7 +5858,7 @@
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="2" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="H117" t="s">
         <v>17</v>
@@ -6057,25 +5867,25 @@
         <v>18</v>
       </c>
       <c r="J117" t="s">
+        <v>40</v>
+      </c>
+      <c r="K117" t="s">
+        <v>41</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M117" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N117" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K117" t="s">
-        <v>47</v>
-      </c>
-      <c r="L117" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M117" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N117" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="O117" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6090,7 +5900,7 @@
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="2" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="H118" t="s">
         <v>17</v>
@@ -6099,25 +5909,25 @@
         <v>18</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K118" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M118" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="M118" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O118" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6132,34 +5942,34 @@
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H119" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I119" t="s">
         <v>18</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K119" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M119" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
+      </c>
+      <c r="M119" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O119" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6174,34 +5984,34 @@
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H120" t="s">
         <v>17</v>
       </c>
       <c r="I120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K120" t="s">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M120" s="2" t="s">
-        <v>179</v>
+        <v>57</v>
+      </c>
+      <c r="M120" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O120" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6216,34 +6026,34 @@
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="H121" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J121" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="K121" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M121" s="2" t="s">
-        <v>94</v>
+        <v>51</v>
+      </c>
+      <c r="M121" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O121" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6258,34 +6068,34 @@
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H122" t="s">
         <v>17</v>
       </c>
       <c r="I122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J122" t="s">
         <v>19</v>
       </c>
       <c r="K122" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M122" s="2" t="s">
-        <v>57</v>
+        <v>81</v>
+      </c>
+      <c r="M122" s="4">
+        <v>10000</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O122" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6300,34 +6110,34 @@
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="H123" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I123" t="s">
         <v>18</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K123" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M123" s="2" t="s">
-        <v>83</v>
+        <v>34</v>
+      </c>
+      <c r="M123" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O123" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6342,10 +6152,10 @@
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H124" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I124" t="s">
         <v>18</v>
@@ -6354,22 +6164,22 @@
         <v>19</v>
       </c>
       <c r="K124" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M124" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="M124" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O124" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6384,34 +6194,34 @@
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H125" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I125" t="s">
         <v>18</v>
       </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K125" t="s">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M125" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
+      </c>
+      <c r="M125" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O125" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6426,34 +6236,34 @@
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="H126" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I126" t="s">
         <v>18</v>
       </c>
       <c r="J126" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="K126" t="s">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M126" s="2" t="s">
-        <v>106</v>
+        <v>38</v>
+      </c>
+      <c r="M126" s="4">
+        <v>12000</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O126" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6468,34 +6278,34 @@
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H127" t="s">
         <v>17</v>
       </c>
       <c r="I127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J127" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="K127" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M127" s="2" t="s">
-        <v>94</v>
+        <v>52</v>
+      </c>
+      <c r="M127" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O127" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6510,34 +6320,34 @@
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="2" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="H128" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I128" t="s">
         <v>18</v>
       </c>
       <c r="J128" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K128" t="s">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M128" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
+      </c>
+      <c r="M128" s="4">
+        <v>35000</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O128" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6552,34 +6362,34 @@
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="2" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="H129" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I129" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J129" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K129" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M129" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
+      </c>
+      <c r="M129" s="4">
+        <v>30000</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O129" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6594,34 +6404,34 @@
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="2" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="H130" t="s">
         <v>17</v>
       </c>
       <c r="I130" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J130" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="K130" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M130" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
+      </c>
+      <c r="M130" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O130" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6636,34 +6446,34 @@
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="2" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="H131" t="s">
         <v>17</v>
       </c>
       <c r="I131" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K131" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M131" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="M131" s="4">
+        <v>10000</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O131" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6684,28 +6494,28 @@
         <v>17</v>
       </c>
       <c r="I132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J132" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="K132" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M132" s="2" t="s">
-        <v>98</v>
+        <v>38</v>
+      </c>
+      <c r="M132" s="4">
+        <v>15000</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O132" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6720,34 +6530,34 @@
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="2" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="H133" t="s">
         <v>17</v>
       </c>
       <c r="I133" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J133" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K133" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M133" s="2" t="s">
-        <v>86</v>
+        <v>57</v>
+      </c>
+      <c r="M133" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O133" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6762,10 +6572,10 @@
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H134" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I134" t="s">
         <v>18</v>
@@ -6774,22 +6584,22 @@
         <v>19</v>
       </c>
       <c r="K134" t="s">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M134" s="2" t="s">
-        <v>194</v>
+        <v>63</v>
+      </c>
+      <c r="M134" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O134" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6804,7 +6614,7 @@
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H135" t="s">
         <v>17</v>
@@ -6816,22 +6626,22 @@
         <v>19</v>
       </c>
       <c r="K135" t="s">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M135" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="M135" s="4">
+        <v>10000</v>
+      </c>
       <c r="N135" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O135" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6846,34 +6656,34 @@
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H136" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I136" t="s">
         <v>18</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K136" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="M136" s="2" t="s">
-        <v>83</v>
+        <v>149</v>
+      </c>
+      <c r="M136" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O136" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6888,7 +6698,7 @@
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="2" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="H137" t="s">
         <v>17</v>
@@ -6897,25 +6707,25 @@
         <v>18</v>
       </c>
       <c r="J137" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K137" t="s">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M137" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
+      </c>
+      <c r="M137" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O137" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6942,22 +6752,22 @@
         <v>19</v>
       </c>
       <c r="K138" t="s">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M138" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="M138" s="4">
+        <v>10000</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O138" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6972,7 +6782,7 @@
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H139" t="s">
         <v>17</v>
@@ -6981,25 +6791,25 @@
         <v>18</v>
       </c>
       <c r="J139" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K139" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M139" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M139" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N139" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N139" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="O139" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7014,34 +6824,34 @@
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="2" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="H140" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I140" t="s">
         <v>18</v>
       </c>
       <c r="J140" t="s">
+        <v>40</v>
+      </c>
+      <c r="K140" t="s">
+        <v>41</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M140" s="4">
+        <v>23000</v>
+      </c>
+      <c r="N140" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K140" t="s">
-        <v>90</v>
-      </c>
-      <c r="L140" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M140" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="N140" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="O140" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7056,34 +6866,34 @@
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H141" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J141" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K141" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M141" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
+      </c>
+      <c r="M141" s="4">
+        <v>30000</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O141" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7098,7 +6908,7 @@
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H142" t="s">
         <v>17</v>
@@ -7107,25 +6917,25 @@
         <v>18</v>
       </c>
       <c r="J142" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K142" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M142" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
+      </c>
+      <c r="M142" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O142" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7140,7 +6950,7 @@
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="2" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="H143" t="s">
         <v>17</v>
@@ -7149,25 +6959,25 @@
         <v>18</v>
       </c>
       <c r="J143" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="K143" t="s">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M143" s="2" t="s">
-        <v>30</v>
+        <v>88</v>
+      </c>
+      <c r="M143" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O143" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7182,34 +6992,34 @@
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H144" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J144" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="K144" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="M144" s="4">
+        <v>20000</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O144" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7224,34 +7034,34 @@
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="2" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="H145" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I145" t="s">
         <v>18</v>
       </c>
       <c r="J145" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K145" t="s">
-        <v>226</v>
+        <v>37</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M145" s="2" t="s">
-        <v>201</v>
+        <v>80</v>
+      </c>
+      <c r="M145" s="4">
+        <v>25000</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O145" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7269,7 +7079,7 @@
         <v>16</v>
       </c>
       <c r="H146" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I146" t="s">
         <v>18</v>
@@ -7278,22 +7088,22 @@
         <v>19</v>
       </c>
       <c r="K146" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M146" s="2" t="s">
-        <v>159</v>
+        <v>38</v>
+      </c>
+      <c r="M146" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="O146" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7308,7 +7118,7 @@
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="2" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="H147" t="s">
         <v>17</v>
@@ -7317,25 +7127,25 @@
         <v>18</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K147" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M147" s="2" t="s">
-        <v>118</v>
+        <v>72</v>
+      </c>
+      <c r="M147" s="4">
+        <v>6000</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="O147" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7350,34 +7160,34 @@
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H148" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I148" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J148" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="K148" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M148" s="2" t="s">
-        <v>123</v>
+        <v>57</v>
+      </c>
+      <c r="M148" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O148" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7392,34 +7202,34 @@
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H149" t="s">
+        <v>32</v>
+      </c>
+      <c r="I149" t="s">
+        <v>23</v>
+      </c>
+      <c r="J149" t="s">
         <v>40</v>
       </c>
-      <c r="H149" t="s">
-        <v>36</v>
-      </c>
-      <c r="I149" t="s">
-        <v>24</v>
-      </c>
-      <c r="J149" t="s">
-        <v>46</v>
-      </c>
       <c r="K149" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M149" s="2" t="s">
-        <v>123</v>
+        <v>57</v>
+      </c>
+      <c r="M149" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O149" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7434,7 +7244,7 @@
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="2" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="H150" t="s">
         <v>17</v>
@@ -7443,25 +7253,25 @@
         <v>18</v>
       </c>
       <c r="J150" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K150" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M150" s="2" t="s">
-        <v>159</v>
+        <v>51</v>
+      </c>
+      <c r="M150" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O150" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7476,7 +7286,7 @@
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="2" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="H151" t="s">
         <v>17</v>
@@ -7485,25 +7295,25 @@
         <v>18</v>
       </c>
       <c r="J151" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K151" t="s">
+        <v>41</v>
+      </c>
+      <c r="L151" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M151" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N151" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L151" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M151" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N151" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="O151" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7518,34 +7328,34 @@
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="2" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="H152" t="s">
         <v>17</v>
       </c>
       <c r="I152" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J152" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="K152" t="s">
-        <v>205</v>
-      </c>
-      <c r="L152" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="M152" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="L152" s="2">
+        <v>60</v>
+      </c>
+      <c r="M152" s="4">
+        <v>20000</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="O152" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7560,34 +7370,34 @@
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H153" t="s">
         <v>17</v>
       </c>
       <c r="I153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J153" t="s">
+        <v>40</v>
+      </c>
+      <c r="K153" t="s">
+        <v>146</v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M153" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="N153" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K153" t="s">
-        <v>54</v>
-      </c>
-      <c r="L153" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M153" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N153" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="O153" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7602,34 +7412,34 @@
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="H154" t="s">
         <v>17</v>
       </c>
       <c r="I154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J154" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K154" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M154" s="2" t="s">
-        <v>103</v>
+        <v>57</v>
+      </c>
+      <c r="M154" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O154" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7644,31 +7454,31 @@
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="2" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="H155" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I155" t="s">
         <v>18</v>
       </c>
       <c r="J155" t="s">
+        <v>40</v>
+      </c>
+      <c r="K155" t="s">
+        <v>41</v>
+      </c>
+      <c r="L155" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M155" s="4">
+        <v>11000</v>
+      </c>
+      <c r="N155" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K155" t="s">
-        <v>47</v>
-      </c>
-      <c r="L155" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M155" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="N155" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="O155" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/ENCUESTA MOVILIDAD(1-154) (1).xlsx
+++ b/ENCUESTA MOVILIDAD(1-154) (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Documents\ARCHIVOS SABANA 5TO SEMESTRE\Proba I\Corte 1\ProbabilidadyEstadistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B2D1C6-E81D-4B47-9699-4D21139E0A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F90F1A-97C7-401E-BBF1-8A8719181AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
     <t xml:space="preserve">Plataforma </t>
   </si>
   <si>
-    <t>Avinión</t>
+    <t>Avión</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:O155" totalsRowShown="0">
-  <autoFilter ref="A1:O155" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:O155" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="14">
+      <filters>
+        <filter val="Avinión"/>
+        <filter val="Avión"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora de inicio" dataDxfId="13"/>
@@ -955,7 +962,7 @@
   <dimension ref="A1:O155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="O165" sqref="O165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1013,7 +1020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1055,7 +1062,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1097,7 +1104,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1139,7 +1146,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1181,7 +1188,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1223,7 +1230,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1265,7 +1272,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1307,7 +1314,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1349,7 +1356,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1391,7 +1398,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1433,7 +1440,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1475,7 +1482,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1517,7 +1524,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1559,7 +1566,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1601,7 +1608,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1643,7 +1650,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1685,7 +1692,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1727,7 +1734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1769,7 +1776,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1853,7 +1860,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1895,7 +1902,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1937,7 +1944,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1979,7 +1986,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2021,7 +2028,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2063,7 +2070,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2105,7 +2112,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2147,7 +2154,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2189,7 +2196,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2231,7 +2238,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2273,7 +2280,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2315,7 +2322,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2357,7 +2364,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2399,7 +2406,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2441,7 +2448,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2483,7 +2490,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2525,7 +2532,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2567,7 +2574,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2609,7 +2616,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2651,7 +2658,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2693,7 +2700,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2735,7 +2742,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2777,7 +2784,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2819,7 +2826,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2861,7 +2868,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2903,7 +2910,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2945,7 +2952,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2987,7 +2994,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3029,7 +3036,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3071,7 +3078,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3113,7 +3120,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3155,7 +3162,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3197,7 +3204,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3239,7 +3246,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3281,7 +3288,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3323,7 +3330,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3365,7 +3372,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3407,7 +3414,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3449,7 +3456,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3491,7 +3498,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3533,7 +3540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3575,7 +3582,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3617,7 +3624,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3659,7 +3666,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3701,7 +3708,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3743,7 +3750,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3785,7 +3792,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3827,7 +3834,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3869,7 +3876,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3911,7 +3918,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3953,7 +3960,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3995,7 +4002,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4037,7 +4044,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4079,7 +4086,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4121,7 +4128,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4163,7 +4170,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4247,7 +4254,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4289,7 +4296,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4331,7 +4338,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4373,7 +4380,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4415,7 +4422,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4457,7 +4464,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4499,7 +4506,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4541,7 +4548,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4583,7 +4590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4625,7 +4632,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4667,7 +4674,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4709,7 +4716,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4751,7 +4758,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4793,7 +4800,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4835,7 +4842,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4877,7 +4884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4919,7 +4926,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4961,7 +4968,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5003,7 +5010,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5045,7 +5052,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5087,7 +5094,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5129,7 +5136,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5171,7 +5178,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5213,7 +5220,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5255,7 +5262,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5297,7 +5304,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5339,7 +5346,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5381,7 +5388,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5423,7 +5430,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5465,7 +5472,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5507,7 +5514,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5549,7 +5556,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5591,7 +5598,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5633,7 +5640,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5675,7 +5682,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5717,7 +5724,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5759,7 +5766,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5801,7 +5808,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5843,7 +5850,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5885,7 +5892,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5927,7 +5934,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5969,7 +5976,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6011,7 +6018,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6053,7 +6060,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6095,7 +6102,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6137,7 +6144,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6179,7 +6186,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6221,7 +6228,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6263,7 +6270,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6305,7 +6312,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6347,7 +6354,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6389,7 +6396,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6431,7 +6438,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6515,7 +6522,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6557,7 +6564,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6599,7 +6606,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6641,7 +6648,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6683,7 +6690,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6725,7 +6732,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6767,7 +6774,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6809,7 +6816,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6851,7 +6858,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6893,7 +6900,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6935,7 +6942,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6977,7 +6984,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7019,7 +7026,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7061,7 +7068,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7103,7 +7110,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7145,7 +7152,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7187,7 +7194,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7229,7 +7236,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7271,7 +7278,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7313,7 +7320,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7355,7 +7362,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7397,7 +7404,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7439,7 +7446,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
